--- a/LabVIEW/trunk/Instruments/Magna-Power Power Supply/Docs/Latest Magnet Calibration.xlsx
+++ b/LabVIEW/trunk/Instruments/Magna-Power Power Supply/Docs/Latest Magnet Calibration.xlsx
@@ -1933,13 +1933,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109994856"/>
-        <c:axId val="146918824"/>
+        <c:axId val="184477360"/>
+        <c:axId val="184477744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109994856"/>
+        <c:axId val="184477360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1400000000000001"/>
+          <c:min val="0.43000000000000005"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1994,12 +1996,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146918824"/>
+        <c:crossAx val="184477744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146918824"/>
+        <c:axId val="184477744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109994856"/>
+        <c:crossAx val="184477360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3942,11 +3944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147246560"/>
-        <c:axId val="147256352"/>
+        <c:axId val="48041488"/>
+        <c:axId val="155659744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147246560"/>
+        <c:axId val="48041488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4003,12 +4005,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147256352"/>
+        <c:crossAx val="155659744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147256352"/>
+        <c:axId val="155659744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147246560"/>
+        <c:crossAx val="48041488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5230,16 +5232,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5260,16 +5262,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5557,7 +5559,7 @@
   <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C289" sqref="C2:C289"/>
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LabVIEW/trunk/Instruments/Magna-Power Power Supply/Docs/Latest Magnet Calibration.xlsx
+++ b/LabVIEW/trunk/Instruments/Magna-Power Power Supply/Docs/Latest Magnet Calibration.xlsx
@@ -185,10 +185,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$288</c:f>
+              <c:f>Sheet1!$A$2:$A$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0.45622000000000001</c:v>
                 </c:pt>
@@ -595,459 +595,453 @@
                   <c:v>0.71380999999999994</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.71511999999999998</c:v>
+                  <c:v>0.71552000000000004</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.71552000000000004</c:v>
+                  <c:v>0.71889999999999998</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.71889999999999998</c:v>
+                  <c:v>0.72021999999999997</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.72021999999999997</c:v>
+                  <c:v>0.72143999999999997</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.72143999999999997</c:v>
+                  <c:v>0.72304999999999997</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.72304999999999997</c:v>
+                  <c:v>0.72441</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.72441</c:v>
+                  <c:v>0.72592000000000001</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.72592000000000001</c:v>
+                  <c:v>0.72736000000000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.72736000000000001</c:v>
+                  <c:v>0.72889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.72889999999999999</c:v>
+                  <c:v>0.73028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.73028999999999999</c:v>
+                  <c:v>0.73172000000000004</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.73172000000000004</c:v>
+                  <c:v>0.73329</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.73329</c:v>
+                  <c:v>0.73470999999999997</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.73470999999999997</c:v>
+                  <c:v>0.73631000000000002</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.73631000000000002</c:v>
+                  <c:v>0.73938999999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.73938999999999999</c:v>
+                  <c:v>0.74236000000000002</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.74236000000000002</c:v>
+                  <c:v>0.74517999999999995</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.74517999999999995</c:v>
+                  <c:v>0.74821000000000004</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.74821000000000004</c:v>
+                  <c:v>0.75131000000000003</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.75131000000000003</c:v>
+                  <c:v>0.75441999999999998</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.75441999999999998</c:v>
+                  <c:v>0.75751999999999997</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.75751999999999997</c:v>
+                  <c:v>0.76061999999999996</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.76061999999999996</c:v>
+                  <c:v>0.76378000000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.76378000000000001</c:v>
+                  <c:v>0.76693</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.76693</c:v>
+                  <c:v>0.77005999999999997</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.77005999999999997</c:v>
+                  <c:v>0.77295000000000003</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.77295000000000003</c:v>
+                  <c:v>0.77607999999999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.77607999999999999</c:v>
+                  <c:v>0.77922000000000002</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.77922000000000002</c:v>
+                  <c:v>0.78237999999999996</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.78237999999999996</c:v>
+                  <c:v>0.78554000000000002</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.78554000000000002</c:v>
+                  <c:v>0.78876999999999997</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.78876999999999997</c:v>
+                  <c:v>0.79198000000000002</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.79198000000000002</c:v>
+                  <c:v>0.79512000000000005</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.79512000000000005</c:v>
+                  <c:v>0.79837999999999998</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.79837999999999998</c:v>
+                  <c:v>0.80139000000000005</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.80139000000000005</c:v>
+                  <c:v>0.80459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.80459999999999998</c:v>
+                  <c:v>0.80793000000000004</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.80793000000000004</c:v>
+                  <c:v>0.81116999999999995</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.81116999999999995</c:v>
+                  <c:v>0.81428999999999996</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.81428999999999996</c:v>
+                  <c:v>0.81757999999999997</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.81757999999999997</c:v>
+                  <c:v>0.82081999999999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.82081999999999999</c:v>
+                  <c:v>0.82416</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.82416</c:v>
+                  <c:v>0.82743</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.82743</c:v>
+                  <c:v>0.83060999999999996</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.83060999999999996</c:v>
+                  <c:v>0.83382000000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.83382000000000001</c:v>
+                  <c:v>0.83692</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.83692</c:v>
+                  <c:v>0.84036999999999995</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.84036999999999995</c:v>
+                  <c:v>0.84372000000000003</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.84372000000000003</c:v>
+                  <c:v>0.84689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.84689999999999999</c:v>
+                  <c:v>0.85018000000000005</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.85018000000000005</c:v>
+                  <c:v>0.85319</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.85319</c:v>
+                  <c:v>0.85648999999999997</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.85648999999999997</c:v>
+                  <c:v>0.85950000000000004</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.85950000000000004</c:v>
+                  <c:v>0.86277000000000004</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.86277000000000004</c:v>
+                  <c:v>0.86609000000000003</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.86609000000000003</c:v>
+                  <c:v>0.86958999999999997</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.86958999999999997</c:v>
+                  <c:v>0.87277000000000005</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.87277000000000005</c:v>
+                  <c:v>0.87609000000000004</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.87609000000000004</c:v>
+                  <c:v>0.87944999999999995</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.87944999999999995</c:v>
+                  <c:v>0.88273999999999997</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.88273999999999997</c:v>
+                  <c:v>0.88610999999999995</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.88610999999999995</c:v>
+                  <c:v>0.88934000000000002</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.88934000000000002</c:v>
+                  <c:v>0.89265000000000005</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.89265000000000005</c:v>
+                  <c:v>0.89576</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.89576</c:v>
+                  <c:v>0.89910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.89910000000000001</c:v>
+                  <c:v>0.90237999999999996</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.90237999999999996</c:v>
+                  <c:v>0.90566000000000002</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.90566000000000002</c:v>
+                  <c:v>0.90905000000000002</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.90905000000000002</c:v>
+                  <c:v>0.91232999999999997</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.91232999999999997</c:v>
+                  <c:v>0.91559000000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.91559000000000001</c:v>
+                  <c:v>0.91898000000000002</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.91898000000000002</c:v>
+                  <c:v>0.92181999999999997</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.92181999999999997</c:v>
+                  <c:v>0.92552999999999996</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.92552999999999996</c:v>
+                  <c:v>0.92871000000000004</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.92871000000000004</c:v>
+                  <c:v>0.93220000000000003</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.93220000000000003</c:v>
+                  <c:v>0.93527000000000005</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.93527000000000005</c:v>
+                  <c:v>0.94174999999999998</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.93581999999999999</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.94174999999999998</c:v>
+                  <c:v>0.94816</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.94499999999999995</c:v>
+                  <c:v>0.95121</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.94816</c:v>
+                  <c:v>0.95425000000000004</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.95121</c:v>
+                  <c:v>0.95740000000000003</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.95425000000000004</c:v>
+                  <c:v>0.96052000000000004</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.95740000000000003</c:v>
+                  <c:v>0.96369000000000005</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.96052000000000004</c:v>
+                  <c:v>0.96674000000000004</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.96369000000000005</c:v>
+                  <c:v>0.96980999999999995</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.96674000000000004</c:v>
+                  <c:v>0.97275</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.96980999999999995</c:v>
+                  <c:v>0.97577999999999998</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.97275</c:v>
+                  <c:v>0.97860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.97577999999999998</c:v>
+                  <c:v>0.98148999999999997</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.97860000000000003</c:v>
+                  <c:v>0.98440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.98148999999999997</c:v>
+                  <c:v>0.98712</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.98440000000000005</c:v>
+                  <c:v>0.9899</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.98712</c:v>
+                  <c:v>0.99265999999999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.9899</c:v>
+                  <c:v>0.99526000000000003</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.99265999999999999</c:v>
+                  <c:v>0.99795999999999996</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.99526000000000003</c:v>
+                  <c:v>1.00177</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.99795999999999996</c:v>
+                  <c:v>1.0054799999999999</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.00177</c:v>
+                  <c:v>1.00926</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.0054799999999999</c:v>
+                  <c:v>1.01271</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.00926</c:v>
+                  <c:v>1.01613</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1.01271</c:v>
+                  <c:v>1.0195799999999999</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1.01613</c:v>
+                  <c:v>1.0227900000000001</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1.0195799999999999</c:v>
+                  <c:v>1.0258700000000001</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.0227900000000001</c:v>
+                  <c:v>1.0290999999999999</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1.0258700000000001</c:v>
+                  <c:v>1.0320400000000001</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1.0290999999999999</c:v>
+                  <c:v>1.03491</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1.0320400000000001</c:v>
+                  <c:v>1.03779</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1.03491</c:v>
+                  <c:v>1.0405199999999999</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.03779</c:v>
+                  <c:v>1.04322</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.0405199999999999</c:v>
+                  <c:v>1.046</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1.04322</c:v>
+                  <c:v>1.0485500000000001</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.046</c:v>
+                  <c:v>1.0518700000000001</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1.0485500000000001</c:v>
+                  <c:v>1.05508</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.0518700000000001</c:v>
+                  <c:v>1.0582100000000001</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.05508</c:v>
+                  <c:v>1.06132</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.0582100000000001</c:v>
+                  <c:v>1.06427</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.06132</c:v>
+                  <c:v>1.06717</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.06427</c:v>
+                  <c:v>1.06999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.06717</c:v>
+                  <c:v>1.0726500000000001</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.06999</c:v>
+                  <c:v>1.0755999999999999</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.0726500000000001</c:v>
+                  <c:v>1.0782</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.0755999999999999</c:v>
+                  <c:v>1.0807899999999999</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.0782</c:v>
+                  <c:v>1.08318</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.0807899999999999</c:v>
+                  <c:v>1.0856300000000001</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.08318</c:v>
+                  <c:v>1.0880399999999999</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.0856300000000001</c:v>
+                  <c:v>1.09148</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.0880399999999999</c:v>
+                  <c:v>1.0947499999999999</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.09148</c:v>
+                  <c:v>1.09792</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.0947499999999999</c:v>
+                  <c:v>1.10093</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.09792</c:v>
+                  <c:v>1.10388</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.10093</c:v>
+                  <c:v>1.1067100000000001</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.10388</c:v>
+                  <c:v>1.10948</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.1067100000000001</c:v>
+                  <c:v>1.1120699999999999</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.10948</c:v>
+                  <c:v>1.1145700000000001</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.1120699999999999</c:v>
+                  <c:v>1.11704</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.1145700000000001</c:v>
+                  <c:v>1.1192599999999999</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.11704</c:v>
+                  <c:v>1.12148</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.1192599999999999</c:v>
+                  <c:v>1.12357</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.12148</c:v>
+                  <c:v>1.1255599999999999</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.12357</c:v>
+                  <c:v>1.12751</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.1255599999999999</c:v>
+                  <c:v>1.12944</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.12751</c:v>
+                  <c:v>1.1312599999999999</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.12944</c:v>
+                  <c:v>1.1330800000000001</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.1312599999999999</c:v>
+                  <c:v>1.1350100000000001</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.1330800000000001</c:v>
+                  <c:v>1.13663</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.1350100000000001</c:v>
+                  <c:v>1.13825</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.13663</c:v>
+                  <c:v>1.13991</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.13825</c:v>
+                  <c:v>1.1414500000000001</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.13991</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>1.1414500000000001</c:v>
-                </c:pt>
-                <c:pt idx="286">
                   <c:v>1.1415500000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1055,10 +1049,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$288</c:f>
+              <c:f>Sheet1!$C$2:$C$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>1367</c:v>
                 </c:pt>
@@ -1465,459 +1459,453 @@
                   <c:v>18.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>13.66</c:v>
+                  <c:v>12.22</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.22</c:v>
+                  <c:v>-0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-5.46</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-5.46</c:v>
+                  <c:v>-10.1</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-10.1</c:v>
+                  <c:v>-16.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-16.059999999999999</c:v>
+                  <c:v>-21.17</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-21.17</c:v>
+                  <c:v>-26.72</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-26.72</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-32</c:v>
+                  <c:v>-37.75</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-37.75</c:v>
+                  <c:v>-42.8</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-42.8</c:v>
+                  <c:v>-48.2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-48.2</c:v>
+                  <c:v>-53.9</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-53.9</c:v>
+                  <c:v>-59</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-59</c:v>
+                  <c:v>-64.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-64.900000000000006</c:v>
+                  <c:v>-76.2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-76.2</c:v>
+                  <c:v>-87.1</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-87.1</c:v>
+                  <c:v>-97.5</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-97.5</c:v>
+                  <c:v>-108.2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-108.2</c:v>
+                  <c:v>-119.2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-119.2</c:v>
+                  <c:v>-130.4</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-130.4</c:v>
+                  <c:v>-141.4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-141.4</c:v>
+                  <c:v>-152.4</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-152.4</c:v>
+                  <c:v>-163.5</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-163.5</c:v>
+                  <c:v>-174.6</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-174.6</c:v>
+                  <c:v>-185.5</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-185.5</c:v>
+                  <c:v>-195.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-195.6</c:v>
+                  <c:v>-206.6</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-206.6</c:v>
+                  <c:v>-217.9</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-217.9</c:v>
+                  <c:v>-228.5</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-228.5</c:v>
+                  <c:v>-239.4</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-239.4</c:v>
+                  <c:v>-250.7</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-250.7</c:v>
+                  <c:v>-261.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-261.39999999999998</c:v>
+                  <c:v>-272.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-272.39999999999998</c:v>
+                  <c:v>-284</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-284</c:v>
+                  <c:v>-294</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-294</c:v>
+                  <c:v>-305</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-305</c:v>
+                  <c:v>-316</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-316</c:v>
+                  <c:v>-327</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-327</c:v>
+                  <c:v>-337</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-337</c:v>
+                  <c:v>-348</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-348</c:v>
+                  <c:v>-359</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-359</c:v>
+                  <c:v>-370</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-370</c:v>
+                  <c:v>-381</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-381</c:v>
+                  <c:v>-391</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-391</c:v>
+                  <c:v>-402</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-402</c:v>
+                  <c:v>-412</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-412</c:v>
+                  <c:v>-423</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-423</c:v>
+                  <c:v>-434</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-434</c:v>
+                  <c:v>-444.5</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-444.5</c:v>
+                  <c:v>-456</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-456</c:v>
+                  <c:v>-465</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-465</c:v>
+                  <c:v>-476</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-476</c:v>
+                  <c:v>-486</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-486</c:v>
+                  <c:v>-496.5</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-496.5</c:v>
+                  <c:v>-507</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-507</c:v>
+                  <c:v>-518</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-518</c:v>
+                  <c:v>-528</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-528</c:v>
+                  <c:v>-539</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-539</c:v>
+                  <c:v>-549</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-549</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-560</c:v>
+                  <c:v>-570</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-570</c:v>
+                  <c:v>-581</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-581</c:v>
+                  <c:v>-591</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-591</c:v>
+                  <c:v>-601</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-601</c:v>
+                  <c:v>-611.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-611.5</c:v>
+                  <c:v>-622</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-622</c:v>
+                  <c:v>-632</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-632</c:v>
+                  <c:v>-642.5</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-642.5</c:v>
+                  <c:v>-653</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-653</c:v>
+                  <c:v>-663</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-663</c:v>
+                  <c:v>-673</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-673</c:v>
+                  <c:v>-682</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-682</c:v>
+                  <c:v>-693</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-693</c:v>
+                  <c:v>-704</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-704</c:v>
+                  <c:v>-715</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-715</c:v>
+                  <c:v>-724</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-724</c:v>
+                  <c:v>-744</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-734.5</c:v>
+                  <c:v>-755</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-744</c:v>
+                  <c:v>-765</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-755</c:v>
+                  <c:v>-774</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-765</c:v>
+                  <c:v>-783</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-774</c:v>
+                  <c:v>-793</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-783</c:v>
+                  <c:v>-803</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-793</c:v>
+                  <c:v>-812</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-803</c:v>
+                  <c:v>-822</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-812</c:v>
+                  <c:v>-831</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-822</c:v>
+                  <c:v>-840</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-831</c:v>
+                  <c:v>-849</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-840</c:v>
+                  <c:v>-858</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-849</c:v>
+                  <c:v>-867</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-858</c:v>
+                  <c:v>-876</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-867</c:v>
+                  <c:v>-884</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-876</c:v>
+                  <c:v>-892</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-884</c:v>
+                  <c:v>-900</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-892</c:v>
+                  <c:v>-908</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-900</c:v>
+                  <c:v>-916.5</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-908</c:v>
+                  <c:v>-928</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-916.5</c:v>
+                  <c:v>-940</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-928</c:v>
+                  <c:v>-951</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-940</c:v>
+                  <c:v>-961</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-951</c:v>
+                  <c:v>-971</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-961</c:v>
+                  <c:v>-982</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-971</c:v>
+                  <c:v>-992</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-982</c:v>
+                  <c:v>-1000</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-992</c:v>
+                  <c:v>-1010</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1000</c:v>
+                  <c:v>-1019</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1010</c:v>
+                  <c:v>-1028</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-1019</c:v>
+                  <c:v>-1037</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1028</c:v>
+                  <c:v>-1045</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1037</c:v>
+                  <c:v>-1053</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1045</c:v>
+                  <c:v>-1062</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-1053</c:v>
+                  <c:v>-1069</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-1062</c:v>
+                  <c:v>-1079</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1069</c:v>
+                  <c:v>-1089</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-1079</c:v>
+                  <c:v>-1098</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1089</c:v>
+                  <c:v>-1108</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-1098</c:v>
+                  <c:v>-1116</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-1108</c:v>
+                  <c:v>-1125</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-1116</c:v>
+                  <c:v>-1134</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1125</c:v>
+                  <c:v>-1142</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-1134</c:v>
+                  <c:v>-1151</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-1142</c:v>
+                  <c:v>-1159</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-1151</c:v>
+                  <c:v>-1167</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-1159</c:v>
+                  <c:v>-1174</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-1167</c:v>
+                  <c:v>-1182</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-1174</c:v>
+                  <c:v>-1189</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-1182</c:v>
+                  <c:v>-1200</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-1189</c:v>
+                  <c:v>-1210</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-1200</c:v>
+                  <c:v>-1220</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-1210</c:v>
+                  <c:v>-1229</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-1220</c:v>
+                  <c:v>-1238</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-1229</c:v>
+                  <c:v>-1247</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-1238</c:v>
+                  <c:v>-1256</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-1247</c:v>
+                  <c:v>-1264</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-1256</c:v>
+                  <c:v>-1272</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-1264</c:v>
+                  <c:v>-1280</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-1272</c:v>
+                  <c:v>-1287</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-1280</c:v>
+                  <c:v>-1294</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-1287</c:v>
+                  <c:v>-1300</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-1294</c:v>
+                  <c:v>-1307</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-1300</c:v>
+                  <c:v>-1313</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-1307</c:v>
+                  <c:v>-1319</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-1313</c:v>
+                  <c:v>-1324</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-1319</c:v>
+                  <c:v>-1331</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-1324</c:v>
+                  <c:v>-1337</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-1331</c:v>
+                  <c:v>-1342</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-1337</c:v>
+                  <c:v>-1348</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-1342</c:v>
+                  <c:v>-1353</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-1348</c:v>
+                  <c:v>-1358</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-1353</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-1358</c:v>
-                </c:pt>
-                <c:pt idx="286">
                   <c:v>-1358</c:v>
                 </c:pt>
               </c:numCache>
@@ -1933,11 +1921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184477360"/>
-        <c:axId val="184477744"/>
+        <c:axId val="212748240"/>
+        <c:axId val="212748632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184477360"/>
+        <c:axId val="212748240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1400000000000001"/>
@@ -1996,12 +1984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184477744"/>
+        <c:crossAx val="212748632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184477744"/>
+        <c:axId val="212748632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184477360"/>
+        <c:crossAx val="212748240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2196,10 +2184,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$288</c:f>
+              <c:f>Sheet1!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2.1560000000000001</c:v>
                 </c:pt>
@@ -2609,456 +2597,450 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>-8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-8.0000000000000002E-3</c:v>
+                  <c:v>-1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-1.4E-2</c:v>
+                  <c:v>-1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-1.7999999999999999E-2</c:v>
+                  <c:v>-2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-2.4E-2</c:v>
+                  <c:v>-2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-2.8000000000000001E-2</c:v>
+                  <c:v>-3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-3.4000000000000002E-2</c:v>
+                  <c:v>-3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-3.7999999999999999E-2</c:v>
+                  <c:v>-4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.4999999999999998E-2</c:v>
+                  <c:v>-0.05</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.05</c:v>
+                  <c:v>-5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-5.5E-2</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.06</c:v>
+                  <c:v>-6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-6.5000000000000002E-2</c:v>
+                  <c:v>-7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-0.08</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-0.08</c:v>
+                  <c:v>-0.09</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.09</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.1</c:v>
+                  <c:v>-0.11</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.11</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.13</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.13</c:v>
+                  <c:v>-0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.14000000000000001</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.16</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.16</c:v>
+                  <c:v>-0.17</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.17</c:v>
+                  <c:v>-0.18</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.18</c:v>
+                  <c:v>-0.19</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.19</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.2</c:v>
+                  <c:v>-0.21</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.22</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.22</c:v>
+                  <c:v>-0.23</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.23</c:v>
+                  <c:v>-0.24</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-0.24</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.26</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.27</c:v>
+                  <c:v>-0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.28000000000000003</c:v>
+                  <c:v>-0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.28999999999999998</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.3</c:v>
+                  <c:v>-0.31</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.31</c:v>
+                  <c:v>-0.32</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.32</c:v>
+                  <c:v>-0.33</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.33</c:v>
+                  <c:v>-0.34</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.34</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.35</c:v>
+                  <c:v>-0.36</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.36</c:v>
+                  <c:v>-0.37</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.37</c:v>
+                  <c:v>-0.38</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.38</c:v>
+                  <c:v>-0.39</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.39</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.4</c:v>
+                  <c:v>-0.41</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.41</c:v>
+                  <c:v>-0.42</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.42</c:v>
+                  <c:v>-0.43</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.43</c:v>
+                  <c:v>-0.44</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.44</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.45</c:v>
+                  <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.46</c:v>
+                  <c:v>-0.47</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.47</c:v>
+                  <c:v>-0.48</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.48</c:v>
+                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.49</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.51</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-0.51</c:v>
+                  <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.52</c:v>
+                  <c:v>-0.53</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.53</c:v>
+                  <c:v>-0.54</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.54</c:v>
+                  <c:v>-0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.56000000000000005</c:v>
+                  <c:v>-0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.56999999999999995</c:v>
+                  <c:v>-0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.57999999999999996</c:v>
+                  <c:v>-0.59</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.59</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.61</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-0.61</c:v>
+                  <c:v>-0.62</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-0.62</c:v>
+                  <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.63</c:v>
+                  <c:v>-0.64</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-0.64</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-0.65</c:v>
+                  <c:v>-0.66</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.66</c:v>
+                  <c:v>-0.67</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.67</c:v>
+                  <c:v>-0.68</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.68</c:v>
+                  <c:v>-0.69</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.69</c:v>
+                  <c:v>-0.71</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.71</c:v>
+                  <c:v>-0.73</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.72</c:v>
+                  <c:v>-0.74</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.73</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.74</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.75</c:v>
+                  <c:v>-0.77</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.76</c:v>
+                  <c:v>-0.78</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.77</c:v>
+                  <c:v>-0.79</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.78</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.79</c:v>
+                  <c:v>-0.81</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.82</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.81</c:v>
+                  <c:v>-0.83</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.82</c:v>
+                  <c:v>-0.84</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.83</c:v>
+                  <c:v>-0.85</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.84</c:v>
+                  <c:v>-0.86</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.85</c:v>
+                  <c:v>-0.87</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.86</c:v>
+                  <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.87</c:v>
+                  <c:v>-0.89</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.88</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.89</c:v>
+                  <c:v>-0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.9</c:v>
+                  <c:v>-0.93</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.91500000000000004</c:v>
+                  <c:v>-0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.93</c:v>
+                  <c:v>-0.96</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.94499999999999995</c:v>
+                  <c:v>-0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.96</c:v>
+                  <c:v>-0.99</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-0.97499999999999998</c:v>
+                  <c:v>-1.004</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.99</c:v>
+                  <c:v>-1.0189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1.004</c:v>
+                  <c:v>-1.0349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1.0189999999999999</c:v>
+                  <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1.0349999999999999</c:v>
+                  <c:v>-1.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-1.05</c:v>
+                  <c:v>-1.08</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1.0649999999999999</c:v>
+                  <c:v>-1.095</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1.08</c:v>
+                  <c:v>-1.099</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1.095</c:v>
+                  <c:v>-1.125</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-1.099</c:v>
+                  <c:v>-1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-1.125</c:v>
+                  <c:v>-1.159</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.1399999999999999</c:v>
+                  <c:v>-1.179</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-1.159</c:v>
+                  <c:v>-1.1990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1.179</c:v>
+                  <c:v>-1.2190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-1.1990000000000001</c:v>
+                  <c:v>-1.2390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-1.2190000000000001</c:v>
+                  <c:v>-1.2589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-1.2390000000000001</c:v>
+                  <c:v>-1.2789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1.2589999999999999</c:v>
+                  <c:v>-1.2989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-1.2789999999999999</c:v>
+                  <c:v>-1.319</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-1.2989999999999999</c:v>
+                  <c:v>-1.339</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-1.319</c:v>
+                  <c:v>-1.359</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-1.339</c:v>
+                  <c:v>-1.379</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-1.359</c:v>
+                  <c:v>-1.399</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-1.379</c:v>
+                  <c:v>-1.419</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-1.399</c:v>
+                  <c:v>-1.4490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-1.419</c:v>
+                  <c:v>-1.4790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-1.4490000000000001</c:v>
+                  <c:v>-1.5089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-1.4790000000000001</c:v>
+                  <c:v>-1.5389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-1.5089999999999999</c:v>
+                  <c:v>-1.569</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-1.5389999999999999</c:v>
+                  <c:v>-1.599</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-1.569</c:v>
+                  <c:v>-1.629</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-1.599</c:v>
+                  <c:v>-1.659</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-1.629</c:v>
+                  <c:v>-1.6879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-1.659</c:v>
+                  <c:v>-1.7190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-1.6879999999999999</c:v>
+                  <c:v>-1.7490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-1.7190000000000001</c:v>
+                  <c:v>-1.7789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-1.7490000000000001</c:v>
+                  <c:v>-1.8089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-1.7789999999999999</c:v>
+                  <c:v>-1.839</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-1.8089999999999999</c:v>
+                  <c:v>-1.869</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-1.839</c:v>
+                  <c:v>-1.899</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-1.869</c:v>
+                  <c:v>-1.929</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-1.899</c:v>
+                  <c:v>-1.9590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-1.929</c:v>
+                  <c:v>-1.9890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-1.9590000000000001</c:v>
+                  <c:v>-2.0190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-1.9890000000000001</c:v>
+                  <c:v>-2.0489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-2.0190000000000001</c:v>
+                  <c:v>-2.0790000000000002</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-2.0489999999999999</c:v>
+                  <c:v>-2.109</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-2.0790000000000002</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-2.109</c:v>
-                </c:pt>
-                <c:pt idx="286">
                   <c:v>-2.1120000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3066,10 +3048,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$288</c:f>
+              <c:f>Sheet1!$C$2:$C$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>1367</c:v>
                 </c:pt>
@@ -3476,459 +3458,453 @@
                   <c:v>18.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>13.66</c:v>
+                  <c:v>12.22</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.22</c:v>
+                  <c:v>-0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-5.46</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-5.46</c:v>
+                  <c:v>-10.1</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-10.1</c:v>
+                  <c:v>-16.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-16.059999999999999</c:v>
+                  <c:v>-21.17</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-21.17</c:v>
+                  <c:v>-26.72</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-26.72</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-32</c:v>
+                  <c:v>-37.75</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-37.75</c:v>
+                  <c:v>-42.8</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-42.8</c:v>
+                  <c:v>-48.2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-48.2</c:v>
+                  <c:v>-53.9</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-53.9</c:v>
+                  <c:v>-59</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-59</c:v>
+                  <c:v>-64.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-64.900000000000006</c:v>
+                  <c:v>-76.2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-76.2</c:v>
+                  <c:v>-87.1</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-87.1</c:v>
+                  <c:v>-97.5</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-97.5</c:v>
+                  <c:v>-108.2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-108.2</c:v>
+                  <c:v>-119.2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-119.2</c:v>
+                  <c:v>-130.4</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-130.4</c:v>
+                  <c:v>-141.4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-141.4</c:v>
+                  <c:v>-152.4</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-152.4</c:v>
+                  <c:v>-163.5</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-163.5</c:v>
+                  <c:v>-174.6</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-174.6</c:v>
+                  <c:v>-185.5</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-185.5</c:v>
+                  <c:v>-195.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-195.6</c:v>
+                  <c:v>-206.6</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-206.6</c:v>
+                  <c:v>-217.9</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-217.9</c:v>
+                  <c:v>-228.5</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-228.5</c:v>
+                  <c:v>-239.4</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-239.4</c:v>
+                  <c:v>-250.7</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-250.7</c:v>
+                  <c:v>-261.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-261.39999999999998</c:v>
+                  <c:v>-272.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-272.39999999999998</c:v>
+                  <c:v>-284</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-284</c:v>
+                  <c:v>-294</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-294</c:v>
+                  <c:v>-305</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-305</c:v>
+                  <c:v>-316</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-316</c:v>
+                  <c:v>-327</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-327</c:v>
+                  <c:v>-337</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-337</c:v>
+                  <c:v>-348</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-348</c:v>
+                  <c:v>-359</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-359</c:v>
+                  <c:v>-370</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-370</c:v>
+                  <c:v>-381</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-381</c:v>
+                  <c:v>-391</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-391</c:v>
+                  <c:v>-402</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-402</c:v>
+                  <c:v>-412</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-412</c:v>
+                  <c:v>-423</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-423</c:v>
+                  <c:v>-434</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-434</c:v>
+                  <c:v>-444.5</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-444.5</c:v>
+                  <c:v>-456</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-456</c:v>
+                  <c:v>-465</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-465</c:v>
+                  <c:v>-476</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-476</c:v>
+                  <c:v>-486</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-486</c:v>
+                  <c:v>-496.5</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-496.5</c:v>
+                  <c:v>-507</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-507</c:v>
+                  <c:v>-518</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-518</c:v>
+                  <c:v>-528</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-528</c:v>
+                  <c:v>-539</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-539</c:v>
+                  <c:v>-549</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-549</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-560</c:v>
+                  <c:v>-570</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-570</c:v>
+                  <c:v>-581</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-581</c:v>
+                  <c:v>-591</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-591</c:v>
+                  <c:v>-601</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-601</c:v>
+                  <c:v>-611.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-611.5</c:v>
+                  <c:v>-622</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-622</c:v>
+                  <c:v>-632</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-632</c:v>
+                  <c:v>-642.5</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-642.5</c:v>
+                  <c:v>-653</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-653</c:v>
+                  <c:v>-663</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-663</c:v>
+                  <c:v>-673</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-673</c:v>
+                  <c:v>-682</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-682</c:v>
+                  <c:v>-693</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-693</c:v>
+                  <c:v>-704</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-704</c:v>
+                  <c:v>-715</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-715</c:v>
+                  <c:v>-724</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-724</c:v>
+                  <c:v>-744</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-734.5</c:v>
+                  <c:v>-755</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-744</c:v>
+                  <c:v>-765</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-755</c:v>
+                  <c:v>-774</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-765</c:v>
+                  <c:v>-783</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-774</c:v>
+                  <c:v>-793</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-783</c:v>
+                  <c:v>-803</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-793</c:v>
+                  <c:v>-812</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-803</c:v>
+                  <c:v>-822</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-812</c:v>
+                  <c:v>-831</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-822</c:v>
+                  <c:v>-840</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-831</c:v>
+                  <c:v>-849</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-840</c:v>
+                  <c:v>-858</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-849</c:v>
+                  <c:v>-867</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-858</c:v>
+                  <c:v>-876</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-867</c:v>
+                  <c:v>-884</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-876</c:v>
+                  <c:v>-892</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-884</c:v>
+                  <c:v>-900</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-892</c:v>
+                  <c:v>-908</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-900</c:v>
+                  <c:v>-916.5</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-908</c:v>
+                  <c:v>-928</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-916.5</c:v>
+                  <c:v>-940</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-928</c:v>
+                  <c:v>-951</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-940</c:v>
+                  <c:v>-961</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-951</c:v>
+                  <c:v>-971</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-961</c:v>
+                  <c:v>-982</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-971</c:v>
+                  <c:v>-992</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-982</c:v>
+                  <c:v>-1000</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-992</c:v>
+                  <c:v>-1010</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1000</c:v>
+                  <c:v>-1019</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1010</c:v>
+                  <c:v>-1028</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-1019</c:v>
+                  <c:v>-1037</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1028</c:v>
+                  <c:v>-1045</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1037</c:v>
+                  <c:v>-1053</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1045</c:v>
+                  <c:v>-1062</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-1053</c:v>
+                  <c:v>-1069</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-1062</c:v>
+                  <c:v>-1079</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1069</c:v>
+                  <c:v>-1089</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-1079</c:v>
+                  <c:v>-1098</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1089</c:v>
+                  <c:v>-1108</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-1098</c:v>
+                  <c:v>-1116</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-1108</c:v>
+                  <c:v>-1125</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-1116</c:v>
+                  <c:v>-1134</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1125</c:v>
+                  <c:v>-1142</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-1134</c:v>
+                  <c:v>-1151</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-1142</c:v>
+                  <c:v>-1159</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-1151</c:v>
+                  <c:v>-1167</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-1159</c:v>
+                  <c:v>-1174</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-1167</c:v>
+                  <c:v>-1182</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-1174</c:v>
+                  <c:v>-1189</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-1182</c:v>
+                  <c:v>-1200</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-1189</c:v>
+                  <c:v>-1210</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-1200</c:v>
+                  <c:v>-1220</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-1210</c:v>
+                  <c:v>-1229</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-1220</c:v>
+                  <c:v>-1238</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-1229</c:v>
+                  <c:v>-1247</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-1238</c:v>
+                  <c:v>-1256</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-1247</c:v>
+                  <c:v>-1264</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-1256</c:v>
+                  <c:v>-1272</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-1264</c:v>
+                  <c:v>-1280</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-1272</c:v>
+                  <c:v>-1287</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-1280</c:v>
+                  <c:v>-1294</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-1287</c:v>
+                  <c:v>-1300</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-1294</c:v>
+                  <c:v>-1307</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-1300</c:v>
+                  <c:v>-1313</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-1307</c:v>
+                  <c:v>-1319</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-1313</c:v>
+                  <c:v>-1324</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-1319</c:v>
+                  <c:v>-1331</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-1324</c:v>
+                  <c:v>-1337</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-1331</c:v>
+                  <c:v>-1342</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-1337</c:v>
+                  <c:v>-1348</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-1342</c:v>
+                  <c:v>-1353</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-1348</c:v>
+                  <c:v>-1358</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-1353</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-1358</c:v>
-                </c:pt>
-                <c:pt idx="286">
                   <c:v>-1358</c:v>
                 </c:pt>
               </c:numCache>
@@ -3944,11 +3920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48041488"/>
-        <c:axId val="155659744"/>
+        <c:axId val="212749416"/>
+        <c:axId val="212749808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48041488"/>
+        <c:axId val="212749416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,12 +3981,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155659744"/>
+        <c:crossAx val="212749808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155659744"/>
+        <c:axId val="212749808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,7 +4043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48041488"/>
+        <c:crossAx val="212749416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5232,16 +5208,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5556,10 +5532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5567,7 +5543,7 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5578,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.45622000000000001</v>
       </c>
@@ -5591,8 +5567,12 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2*0.001</f>
+        <v>1.367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.45657999999999999</v>
       </c>
@@ -5602,8 +5582,12 @@
       <c r="C3">
         <v>1364</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3*0.001</f>
+        <v>1.3640000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.45722000000000002</v>
       </c>
@@ -5613,8 +5597,12 @@
       <c r="C4">
         <v>1359</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.45784999999999998</v>
       </c>
@@ -5624,8 +5612,12 @@
       <c r="C5">
         <v>1355</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.45846999999999999</v>
       </c>
@@ -5635,8 +5627,12 @@
       <c r="C6">
         <v>1349</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.45911999999999997</v>
       </c>
@@ -5646,8 +5642,12 @@
       <c r="C7">
         <v>1344</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.45978000000000002</v>
       </c>
@@ -5657,8 +5657,12 @@
       <c r="C8">
         <v>1339</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.46055000000000001</v>
       </c>
@@ -5668,8 +5672,12 @@
       <c r="C9">
         <v>1333</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.46124999999999999</v>
       </c>
@@ -5679,8 +5687,12 @@
       <c r="C10">
         <v>1328</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.3280000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.46196999999999999</v>
       </c>
@@ -5690,8 +5702,12 @@
       <c r="C11">
         <v>1322</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.3220000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.4627</v>
       </c>
@@ -5701,8 +5717,12 @@
       <c r="C12">
         <v>1317</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.3169999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.46348</v>
       </c>
@@ -5712,8 +5732,12 @@
       <c r="C13">
         <v>1310</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.46431</v>
       </c>
@@ -5723,8 +5747,12 @@
       <c r="C14">
         <v>1304</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.46512999999999999</v>
       </c>
@@ -5734,8 +5762,12 @@
       <c r="C15">
         <v>1297</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.2969999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.46599000000000002</v>
       </c>
@@ -5745,8 +5777,12 @@
       <c r="C16">
         <v>1291</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.2909999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.46689999999999998</v>
       </c>
@@ -5756,8 +5792,12 @@
       <c r="C17">
         <v>1284</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.46788999999999997</v>
       </c>
@@ -5767,8 +5807,12 @@
       <c r="C18">
         <v>1277</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.2770000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.46883999999999998</v>
       </c>
@@ -5778,8 +5822,12 @@
       <c r="C19">
         <v>1269</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.2690000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.46988999999999997</v>
       </c>
@@ -5789,8 +5837,12 @@
       <c r="C20">
         <v>1261</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.2610000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.47094999999999998</v>
       </c>
@@ -5800,8 +5852,12 @@
       <c r="C21">
         <v>1253</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.2530000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.47210999999999997</v>
       </c>
@@ -5811,8 +5867,12 @@
       <c r="C22">
         <v>1245</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.47325</v>
       </c>
@@ -5822,8 +5882,12 @@
       <c r="C23">
         <v>1236</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.47444999999999998</v>
       </c>
@@ -5833,8 +5897,12 @@
       <c r="C24">
         <v>1227</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.47571999999999998</v>
       </c>
@@ -5844,8 +5912,12 @@
       <c r="C25">
         <v>1218</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.47704000000000002</v>
       </c>
@@ -5855,8 +5927,12 @@
       <c r="C26">
         <v>1209</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.2090000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.47841</v>
       </c>
@@ -5866,8 +5942,12 @@
       <c r="C27">
         <v>1198.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.1985000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.47982999999999998</v>
       </c>
@@ -5877,8 +5957,12 @@
       <c r="C28">
         <v>1188</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.48132000000000003</v>
       </c>
@@ -5888,8 +5972,12 @@
       <c r="C29">
         <v>1178</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.1779999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.48287999999999998</v>
       </c>
@@ -5899,8 +5987,12 @@
       <c r="C30">
         <v>1166</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.1659999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.48459000000000002</v>
       </c>
@@ -5910,8 +6002,12 @@
       <c r="C31">
         <v>1154.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.1545000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.48629</v>
       </c>
@@ -5921,8 +6017,12 @@
       <c r="C32">
         <v>1143</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.48807</v>
       </c>
@@ -5932,8 +6032,12 @@
       <c r="C33">
         <v>1131</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.48993999999999999</v>
       </c>
@@ -5943,8 +6047,12 @@
       <c r="C34">
         <v>1118</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.1180000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.49186999999999997</v>
       </c>
@@ -5954,8 +6062,12 @@
       <c r="C35">
         <v>1105</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.49392000000000003</v>
       </c>
@@ -5965,8 +6077,12 @@
       <c r="C36">
         <v>1091</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.49611</v>
       </c>
@@ -5976,8 +6092,12 @@
       <c r="C37">
         <v>1077</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.49842999999999998</v>
       </c>
@@ -5987,8 +6107,12 @@
       <c r="C38">
         <v>1062</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.50080000000000002</v>
       </c>
@@ -5998,8 +6122,12 @@
       <c r="C39">
         <v>1046</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.50341000000000002</v>
       </c>
@@ -6009,8 +6137,12 @@
       <c r="C40">
         <v>1030</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.50614000000000003</v>
       </c>
@@ -6020,8 +6152,12 @@
       <c r="C41">
         <v>1013</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.0130000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.50807000000000002</v>
       </c>
@@ -6031,8 +6167,12 @@
       <c r="C42">
         <v>1001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.51009000000000004</v>
       </c>
@@ -6042,8 +6182,12 @@
       <c r="C43">
         <v>988</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.51217999999999997</v>
       </c>
@@ -6053,8 +6197,12 @@
       <c r="C44">
         <v>975</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.51444000000000001</v>
       </c>
@@ -6064,8 +6212,12 @@
       <c r="C45">
         <v>961</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.51668999999999998</v>
       </c>
@@ -6075,8 +6227,12 @@
       <c r="C46">
         <v>947</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.94700000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.51861999999999997</v>
       </c>
@@ -6086,8 +6242,12 @@
       <c r="C47">
         <v>935</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.52041999999999999</v>
       </c>
@@ -6097,8 +6257,12 @@
       <c r="C48">
         <v>924</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.52239000000000002</v>
       </c>
@@ -6108,8 +6272,12 @@
       <c r="C49">
         <v>912</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.52451000000000003</v>
       </c>
@@ -6119,8 +6287,12 @@
       <c r="C50">
         <v>899</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.52666000000000002</v>
       </c>
@@ -6130,8 +6302,12 @@
       <c r="C51">
         <v>887</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.52885000000000004</v>
       </c>
@@ -6141,8 +6317,12 @@
       <c r="C52">
         <v>874</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.53124000000000005</v>
       </c>
@@ -6152,8 +6332,12 @@
       <c r="C53">
         <v>860</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.53363000000000005</v>
       </c>
@@ -6163,8 +6347,12 @@
       <c r="C54">
         <v>847</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.53607000000000005</v>
       </c>
@@ -6174,8 +6362,12 @@
       <c r="C55">
         <v>833</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.53868000000000005</v>
       </c>
@@ -6185,8 +6377,12 @@
       <c r="C56">
         <v>818</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.81800000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.54127000000000003</v>
       </c>
@@ -6196,8 +6392,12 @@
       <c r="C57">
         <v>804</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.54383000000000004</v>
       </c>
@@ -6207,8 +6407,12 @@
       <c r="C58">
         <v>790</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.54559999999999997</v>
       </c>
@@ -6218,8 +6422,12 @@
       <c r="C59">
         <v>779.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.77949999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.54747000000000001</v>
       </c>
@@ -6229,8 +6437,12 @@
       <c r="C60">
         <v>769</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.54925999999999997</v>
       </c>
@@ -6240,8 +6452,12 @@
       <c r="C61">
         <v>759</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.55115000000000003</v>
       </c>
@@ -6251,8 +6467,12 @@
       <c r="C62">
         <v>749</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.55305000000000004</v>
       </c>
@@ -6262,8 +6482,12 @@
       <c r="C63">
         <v>739</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.55500000000000005</v>
       </c>
@@ -6273,8 +6497,12 @@
       <c r="C64">
         <v>728.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0.72850000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.55713000000000001</v>
       </c>
@@ -6284,8 +6512,12 @@
       <c r="C65">
         <v>717</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.55886000000000002</v>
       </c>
@@ -6295,8 +6527,12 @@
       <c r="C66">
         <v>707</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.56084000000000001</v>
       </c>
@@ -6306,8 +6542,12 @@
       <c r="C67">
         <v>697</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">C67*0.001</f>
+        <v>0.69700000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.56276999999999999</v>
       </c>
@@ -6317,8 +6557,12 @@
       <c r="C68">
         <v>687</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.56476999999999999</v>
       </c>
@@ -6328,8 +6572,12 @@
       <c r="C69">
         <v>676</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.56674999999999998</v>
       </c>
@@ -6339,8 +6587,12 @@
       <c r="C70">
         <v>665.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0.66560000000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.56877999999999995</v>
       </c>
@@ -6350,8 +6602,12 @@
       <c r="C71">
         <v>655</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.57079999999999997</v>
       </c>
@@ -6361,8 +6617,12 @@
       <c r="C72">
         <v>644</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.57294</v>
       </c>
@@ -6372,8 +6632,12 @@
       <c r="C73">
         <v>633</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.57493000000000005</v>
       </c>
@@ -6383,8 +6647,12 @@
       <c r="C74">
         <v>623</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.57686000000000004</v>
       </c>
@@ -6394,8 +6662,12 @@
       <c r="C75">
         <v>612.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.57898000000000005</v>
       </c>
@@ -6405,8 +6677,12 @@
       <c r="C76">
         <v>602</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.58109</v>
       </c>
@@ -6416,8 +6692,12 @@
       <c r="C77">
         <v>591.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.59150000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.58326999999999996</v>
       </c>
@@ -6427,8 +6707,12 @@
       <c r="C78">
         <v>581</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.58542000000000005</v>
       </c>
@@ -6438,8 +6722,12 @@
       <c r="C79">
         <v>570</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.58753</v>
       </c>
@@ -6449,8 +6737,12 @@
       <c r="C80">
         <v>560</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.58974000000000004</v>
       </c>
@@ -6460,8 +6752,12 @@
       <c r="C81">
         <v>549</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.59194999999999998</v>
       </c>
@@ -6471,8 +6767,12 @@
       <c r="C82">
         <v>538</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.59421000000000002</v>
       </c>
@@ -6482,8 +6782,12 @@
       <c r="C83">
         <v>527</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.59636999999999996</v>
       </c>
@@ -6493,8 +6797,12 @@
       <c r="C84">
         <v>516</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.59843000000000002</v>
       </c>
@@ -6504,8 +6812,12 @@
       <c r="C85">
         <v>507</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.60077000000000003</v>
       </c>
@@ -6515,8 +6827,12 @@
       <c r="C86">
         <v>496</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.60270000000000001</v>
       </c>
@@ -6526,8 +6842,12 @@
       <c r="C87">
         <v>486</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.60502</v>
       </c>
@@ -6537,8 +6857,12 @@
       <c r="C88">
         <v>475</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.60731000000000002</v>
       </c>
@@ -6548,8 +6872,12 @@
       <c r="C89">
         <v>464</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.60960999999999999</v>
       </c>
@@ -6559,8 +6887,12 @@
       <c r="C90">
         <v>454</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.61204999999999998</v>
       </c>
@@ -6570,8 +6902,12 @@
       <c r="C91">
         <v>443</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.61434999999999995</v>
       </c>
@@ -6581,8 +6917,12 @@
       <c r="C92">
         <v>432</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.61675999999999997</v>
       </c>
@@ -6592,8 +6932,12 @@
       <c r="C93">
         <v>421</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.61899999999999999</v>
       </c>
@@ -6603,8 +6947,12 @@
       <c r="C94">
         <v>411</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>0.41100000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.62143999999999999</v>
       </c>
@@ -6614,8 +6962,12 @@
       <c r="C95">
         <v>400</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.62387000000000004</v>
       </c>
@@ -6625,8 +6977,12 @@
       <c r="C96">
         <v>388</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.62634999999999996</v>
       </c>
@@ -6636,8 +6992,12 @@
       <c r="C97">
         <v>377</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.62880000000000003</v>
       </c>
@@ -6647,8 +7007,12 @@
       <c r="C98">
         <v>367</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.63127999999999995</v>
       </c>
@@ -6658,8 +7022,12 @@
       <c r="C99">
         <v>355</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.63380000000000003</v>
       </c>
@@ -6669,8 +7037,12 @@
       <c r="C100">
         <v>344</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>0.34400000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.63639000000000001</v>
       </c>
@@ -6680,8 +7052,12 @@
       <c r="C101">
         <v>333</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.63885000000000003</v>
       </c>
@@ -6691,8 +7067,12 @@
       <c r="C102">
         <v>322</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.64119999999999999</v>
       </c>
@@ -6702,8 +7082,12 @@
       <c r="C103">
         <v>312</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.64378999999999997</v>
       </c>
@@ -6713,8 +7097,12 @@
       <c r="C104">
         <v>301</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.64642999999999995</v>
       </c>
@@ -6724,8 +7112,12 @@
       <c r="C105">
         <v>290</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.64905000000000002</v>
       </c>
@@ -6735,8 +7127,12 @@
       <c r="C106">
         <v>279</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.65164999999999995</v>
       </c>
@@ -6746,8 +7142,12 @@
       <c r="C107">
         <v>267</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.65427000000000002</v>
       </c>
@@ -6757,8 +7157,12 @@
       <c r="C108">
         <v>256</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.65688000000000002</v>
       </c>
@@ -6768,8 +7172,12 @@
       <c r="C109">
         <v>245</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.65951000000000004</v>
       </c>
@@ -6779,8 +7187,12 @@
       <c r="C110">
         <v>234</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.66212000000000004</v>
       </c>
@@ -6790,8 +7202,12 @@
       <c r="C111">
         <v>223</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.66469</v>
       </c>
@@ -6801,8 +7217,12 @@
       <c r="C112">
         <v>212.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.66742999999999997</v>
       </c>
@@ -6812,8 +7232,12 @@
       <c r="C113">
         <v>201.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.67022999999999999</v>
       </c>
@@ -6823,8 +7247,12 @@
       <c r="C114">
         <v>190.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>0.19009999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.67291999999999996</v>
       </c>
@@ -6834,8 +7262,12 @@
       <c r="C115">
         <v>178.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>0.17880000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0.67569999999999997</v>
       </c>
@@ -6845,8 +7277,12 @@
       <c r="C116">
         <v>167.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>0.16740000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.67842000000000002</v>
       </c>
@@ -6856,8 +7292,12 @@
       <c r="C117">
         <v>156.80000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>0.15680000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.68123</v>
       </c>
@@ -6867,8 +7307,12 @@
       <c r="C118">
         <v>145.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>0.14549999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.68401000000000001</v>
       </c>
@@ -6878,8 +7322,12 @@
       <c r="C119">
         <v>134.19999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>0.13419999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.68677999999999995</v>
       </c>
@@ -6889,8 +7337,12 @@
       <c r="C120">
         <v>123.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>0.12340000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.68942999999999999</v>
       </c>
@@ -6900,8 +7352,12 @@
       <c r="C121">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.69218000000000002</v>
       </c>
@@ -6911,8 +7367,12 @@
       <c r="C122">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.69515000000000005</v>
       </c>
@@ -6922,8 +7382,12 @@
       <c r="C123">
         <v>90.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.69671000000000005</v>
       </c>
@@ -6933,8 +7397,12 @@
       <c r="C124">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>8.43E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.69793000000000005</v>
       </c>
@@ -6944,8 +7412,12 @@
       <c r="C125">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.69943999999999995</v>
       </c>
@@ -6955,8 +7427,12 @@
       <c r="C126">
         <v>73.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0.70081000000000004</v>
       </c>
@@ -6966,8 +7442,12 @@
       <c r="C127">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.70215000000000005</v>
       </c>
@@ -6977,8 +7457,12 @@
       <c r="C128">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>6.3299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.70377000000000001</v>
       </c>
@@ -6988,8 +7472,12 @@
       <c r="C129">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.70504999999999995</v>
       </c>
@@ -6999,8 +7487,12 @@
       <c r="C130">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.70659000000000005</v>
       </c>
@@ -7010,8 +7502,12 @@
       <c r="C131">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E193" si="2">C131*0.001</f>
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.70799999999999996</v>
       </c>
@@ -7021,8 +7517,12 @@
       <c r="C132">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>4.0799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.70960999999999996</v>
       </c>
@@ -7032,8 +7532,12 @@
       <c r="C133">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.71087</v>
       </c>
@@ -7043,8 +7547,12 @@
       <c r="C134">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.71236999999999995</v>
       </c>
@@ -7054,8 +7562,12 @@
       <c r="C135">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>2.4100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0.71380999999999994</v>
       </c>
@@ -7065,1694 +7577,2280 @@
       <c r="C136">
         <v>18.690000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>1.8690000000000002E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.71511999999999998</v>
+        <v>0.71552000000000004</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12.22</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>1.2220000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.71552000000000004</v>
+        <v>0.71889999999999998</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="C138">
-        <v>12.22</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>-5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.71889999999999998</v>
+        <v>0.72021999999999997</v>
       </c>
       <c r="B139">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="C139">
+        <v>-5.46</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>-5.4600000000000004E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.72143999999999997</v>
+      </c>
+      <c r="B140">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="C140">
+        <v>-10.1</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>-1.01E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.72304999999999997</v>
+      </c>
+      <c r="B141">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="C141">
+        <v>-16.059999999999999</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>-1.6059999999999998E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.72441</v>
+      </c>
+      <c r="B142">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="C142">
+        <v>-21.17</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>-2.1170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.72592000000000001</v>
+      </c>
+      <c r="B143">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="C143">
+        <v>-26.72</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>-2.6720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.72736000000000001</v>
+      </c>
+      <c r="B144">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="C144">
+        <v>-32</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="B145">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="C145">
+        <v>-37.75</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>-3.7749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.73028999999999999</v>
+      </c>
+      <c r="B146">
+        <v>-0.05</v>
+      </c>
+      <c r="C146">
+        <v>-42.8</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>-4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.73172000000000004</v>
+      </c>
+      <c r="B147">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="C147">
+        <v>-48.2</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>-4.8200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.73329</v>
+      </c>
+      <c r="B148">
+        <v>-0.06</v>
+      </c>
+      <c r="C148">
+        <v>-53.9</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>-5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.73470999999999997</v>
+      </c>
+      <c r="B149">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="C149">
+        <v>-59</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>-5.9000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.73631000000000002</v>
+      </c>
+      <c r="B150">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C150">
+        <v>-64.900000000000006</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>-6.4900000000000013E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.73938999999999999</v>
+      </c>
+      <c r="B151">
+        <v>-0.08</v>
+      </c>
+      <c r="C151">
+        <v>-76.2</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>-7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.74236000000000002</v>
+      </c>
+      <c r="B152">
+        <v>-0.09</v>
+      </c>
+      <c r="C152">
+        <v>-87.1</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>-8.7099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.74517999999999995</v>
+      </c>
+      <c r="B153">
+        <v>-0.1</v>
+      </c>
+      <c r="C153">
+        <v>-97.5</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>-9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.74821000000000004</v>
+      </c>
+      <c r="B154">
+        <v>-0.11</v>
+      </c>
+      <c r="C154">
+        <v>-108.2</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>-0.1082</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.75131000000000003</v>
+      </c>
+      <c r="B155">
+        <v>-0.12</v>
+      </c>
+      <c r="C155">
+        <v>-119.2</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>-0.1192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.75441999999999998</v>
+      </c>
+      <c r="B156">
+        <v>-0.13</v>
+      </c>
+      <c r="C156">
+        <v>-130.4</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>-0.13040000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.75751999999999997</v>
+      </c>
+      <c r="B157">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C157">
+        <v>-141.4</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>-0.1414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.76061999999999996</v>
+      </c>
+      <c r="B158">
+        <v>-0.15</v>
+      </c>
+      <c r="C158">
+        <v>-152.4</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>-0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.76378000000000001</v>
+      </c>
+      <c r="B159">
+        <v>-0.16</v>
+      </c>
+      <c r="C159">
+        <v>-163.5</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>-0.16350000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.76693</v>
+      </c>
+      <c r="B160">
+        <v>-0.17</v>
+      </c>
+      <c r="C160">
+        <v>-174.6</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>-0.17460000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.77005999999999997</v>
+      </c>
+      <c r="B161">
+        <v>-0.18</v>
+      </c>
+      <c r="C161">
+        <v>-185.5</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>-0.1855</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.77295000000000003</v>
+      </c>
+      <c r="B162">
+        <v>-0.19</v>
+      </c>
+      <c r="C162">
+        <v>-195.6</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>-0.1956</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.77607999999999999</v>
+      </c>
+      <c r="B163">
+        <v>-0.2</v>
+      </c>
+      <c r="C163">
+        <v>-206.6</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>-0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.77922000000000002</v>
+      </c>
+      <c r="B164">
+        <v>-0.21</v>
+      </c>
+      <c r="C164">
+        <v>-217.9</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>-0.21790000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.78237999999999996</v>
+      </c>
+      <c r="B165">
+        <v>-0.22</v>
+      </c>
+      <c r="C165">
+        <v>-228.5</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>-0.22850000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.78554000000000002</v>
+      </c>
+      <c r="B166">
+        <v>-0.23</v>
+      </c>
+      <c r="C166">
+        <v>-239.4</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>-0.2394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.78876999999999997</v>
+      </c>
+      <c r="B167">
+        <v>-0.24</v>
+      </c>
+      <c r="C167">
+        <v>-250.7</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>-0.25069999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.79198000000000002</v>
+      </c>
+      <c r="B168">
+        <v>-0.25</v>
+      </c>
+      <c r="C168">
+        <v>-261.39999999999998</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>-0.26139999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.79512000000000005</v>
+      </c>
+      <c r="B169">
+        <v>-0.26</v>
+      </c>
+      <c r="C169">
+        <v>-272.39999999999998</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>-0.27239999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.79837999999999998</v>
+      </c>
+      <c r="B170">
+        <v>-0.27</v>
+      </c>
+      <c r="C170">
+        <v>-284</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>-0.28400000000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.80139000000000005</v>
+      </c>
+      <c r="B171">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C171">
+        <v>-294</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>-0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="B172">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C172">
+        <v>-305</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>-0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.80793000000000004</v>
+      </c>
+      <c r="B173">
+        <v>-0.3</v>
+      </c>
+      <c r="C173">
+        <v>-316</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>-0.316</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.81116999999999995</v>
+      </c>
+      <c r="B174">
+        <v>-0.31</v>
+      </c>
+      <c r="C174">
+        <v>-327</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>-0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.81428999999999996</v>
+      </c>
+      <c r="B175">
+        <v>-0.32</v>
+      </c>
+      <c r="C175">
+        <v>-337</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>-0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.81757999999999997</v>
+      </c>
+      <c r="B176">
+        <v>-0.33</v>
+      </c>
+      <c r="C176">
+        <v>-348</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>-0.34800000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.82081999999999999</v>
+      </c>
+      <c r="B177">
+        <v>-0.34</v>
+      </c>
+      <c r="C177">
+        <v>-359</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>-0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.82416</v>
+      </c>
+      <c r="B178">
+        <v>-0.35</v>
+      </c>
+      <c r="C178">
+        <v>-370</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.82743</v>
+      </c>
+      <c r="B179">
+        <v>-0.36</v>
+      </c>
+      <c r="C179">
+        <v>-381</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>-0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.83060999999999996</v>
+      </c>
+      <c r="B180">
+        <v>-0.37</v>
+      </c>
+      <c r="C180">
+        <v>-391</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>-0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.83382000000000001</v>
+      </c>
+      <c r="B181">
+        <v>-0.38</v>
+      </c>
+      <c r="C181">
+        <v>-402</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>-0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.83692</v>
+      </c>
+      <c r="B182">
+        <v>-0.39</v>
+      </c>
+      <c r="C182">
+        <v>-412</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>-0.41200000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.84036999999999995</v>
+      </c>
+      <c r="B183">
+        <v>-0.4</v>
+      </c>
+      <c r="C183">
+        <v>-423</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>-0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.84372000000000003</v>
+      </c>
+      <c r="B184">
+        <v>-0.41</v>
+      </c>
+      <c r="C184">
+        <v>-434</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>-0.434</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="B185">
+        <v>-0.42</v>
+      </c>
+      <c r="C185">
+        <v>-444.5</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>-0.44450000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.85018000000000005</v>
+      </c>
+      <c r="B186">
+        <v>-0.43</v>
+      </c>
+      <c r="C186">
+        <v>-456</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>-0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.85319</v>
+      </c>
+      <c r="B187">
+        <v>-0.44</v>
+      </c>
+      <c r="C187">
+        <v>-465</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.85648999999999997</v>
+      </c>
+      <c r="B188">
+        <v>-0.45</v>
+      </c>
+      <c r="C188">
+        <v>-476</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>-0.47600000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="B189">
+        <v>-0.46</v>
+      </c>
+      <c r="C189">
+        <v>-486</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>-0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.86277000000000004</v>
+      </c>
+      <c r="B190">
+        <v>-0.47</v>
+      </c>
+      <c r="C190">
+        <v>-496.5</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>-0.4965</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.86609000000000003</v>
+      </c>
+      <c r="B191">
+        <v>-0.48</v>
+      </c>
+      <c r="C191">
+        <v>-507</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>-0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.86958999999999997</v>
+      </c>
+      <c r="B192">
+        <v>-0.49</v>
+      </c>
+      <c r="C192">
+        <v>-518</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>-0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.87277000000000005</v>
+      </c>
+      <c r="B193">
+        <v>-0.5</v>
+      </c>
+      <c r="C193">
+        <v>-528</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>-0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.87609000000000004</v>
+      </c>
+      <c r="B194">
+        <v>-0.51</v>
+      </c>
+      <c r="C194">
+        <v>-539</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ref="E194:E256" si="3">C194*0.001</f>
+        <v>-0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.87944999999999995</v>
+      </c>
+      <c r="B195">
+        <v>-0.52</v>
+      </c>
+      <c r="C195">
+        <v>-549</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="3"/>
+        <v>-0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.88273999999999997</v>
+      </c>
+      <c r="B196">
+        <v>-0.53</v>
+      </c>
+      <c r="C196">
+        <v>-560</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.88610999999999995</v>
+      </c>
+      <c r="B197">
+        <v>-0.54</v>
+      </c>
+      <c r="C197">
+        <v>-570</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>-0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.88934000000000002</v>
+      </c>
+      <c r="B198">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="D139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>0.72021999999999997</v>
-      </c>
-      <c r="B140">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="C140">
-        <v>-5.46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>0.72143999999999997</v>
-      </c>
-      <c r="B141">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="C141">
-        <v>-10.1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>0.72304999999999997</v>
-      </c>
-      <c r="B142">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="C142">
-        <v>-16.059999999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>0.72441</v>
-      </c>
-      <c r="B143">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="C143">
-        <v>-21.17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>0.72592000000000001</v>
-      </c>
-      <c r="B144">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="C144">
-        <v>-26.72</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>0.72736000000000001</v>
-      </c>
-      <c r="B145">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="C145">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>0.72889999999999999</v>
-      </c>
-      <c r="B146">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="C146">
-        <v>-37.75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>0.73028999999999999</v>
-      </c>
-      <c r="B147">
-        <v>-0.05</v>
-      </c>
-      <c r="C147">
-        <v>-42.8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>0.73172000000000004</v>
-      </c>
-      <c r="B148">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="C148">
-        <v>-48.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>0.73329</v>
-      </c>
-      <c r="B149">
-        <v>-0.06</v>
-      </c>
-      <c r="C149">
-        <v>-53.9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>0.73470999999999997</v>
-      </c>
-      <c r="B150">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="C150">
-        <v>-59</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>0.73631000000000002</v>
-      </c>
-      <c r="B151">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C151">
-        <v>-64.900000000000006</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>0.73938999999999999</v>
-      </c>
-      <c r="B152">
-        <v>-0.08</v>
-      </c>
-      <c r="C152">
-        <v>-76.2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>0.74236000000000002</v>
-      </c>
-      <c r="B153">
-        <v>-0.09</v>
-      </c>
-      <c r="C153">
-        <v>-87.1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>0.74517999999999995</v>
-      </c>
-      <c r="B154">
-        <v>-0.1</v>
-      </c>
-      <c r="C154">
-        <v>-97.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>0.74821000000000004</v>
-      </c>
-      <c r="B155">
-        <v>-0.11</v>
-      </c>
-      <c r="C155">
-        <v>-108.2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>0.75131000000000003</v>
-      </c>
-      <c r="B156">
-        <v>-0.12</v>
-      </c>
-      <c r="C156">
-        <v>-119.2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>0.75441999999999998</v>
-      </c>
-      <c r="B157">
-        <v>-0.13</v>
-      </c>
-      <c r="C157">
-        <v>-130.4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>0.75751999999999997</v>
-      </c>
-      <c r="B158">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="C158">
-        <v>-141.4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>0.76061999999999996</v>
-      </c>
-      <c r="B159">
-        <v>-0.15</v>
-      </c>
-      <c r="C159">
-        <v>-152.4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>0.76378000000000001</v>
-      </c>
-      <c r="B160">
-        <v>-0.16</v>
-      </c>
-      <c r="C160">
-        <v>-163.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>0.76693</v>
-      </c>
-      <c r="B161">
-        <v>-0.17</v>
-      </c>
-      <c r="C161">
-        <v>-174.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>0.77005999999999997</v>
-      </c>
-      <c r="B162">
-        <v>-0.18</v>
-      </c>
-      <c r="C162">
-        <v>-185.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>0.77295000000000003</v>
-      </c>
-      <c r="B163">
-        <v>-0.19</v>
-      </c>
-      <c r="C163">
-        <v>-195.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>0.77607999999999999</v>
-      </c>
-      <c r="B164">
-        <v>-0.2</v>
-      </c>
-      <c r="C164">
-        <v>-206.6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>0.77922000000000002</v>
-      </c>
-      <c r="B165">
-        <v>-0.21</v>
-      </c>
-      <c r="C165">
-        <v>-217.9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>0.78237999999999996</v>
-      </c>
-      <c r="B166">
-        <v>-0.22</v>
-      </c>
-      <c r="C166">
-        <v>-228.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>0.78554000000000002</v>
-      </c>
-      <c r="B167">
-        <v>-0.23</v>
-      </c>
-      <c r="C167">
-        <v>-239.4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>0.78876999999999997</v>
-      </c>
-      <c r="B168">
-        <v>-0.24</v>
-      </c>
-      <c r="C168">
-        <v>-250.7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>0.79198000000000002</v>
-      </c>
-      <c r="B169">
-        <v>-0.25</v>
-      </c>
-      <c r="C169">
-        <v>-261.39999999999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>0.79512000000000005</v>
-      </c>
-      <c r="B170">
-        <v>-0.26</v>
-      </c>
-      <c r="C170">
-        <v>-272.39999999999998</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>0.79837999999999998</v>
-      </c>
-      <c r="B171">
-        <v>-0.27</v>
-      </c>
-      <c r="C171">
-        <v>-284</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>0.80139000000000005</v>
-      </c>
-      <c r="B172">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="C172">
-        <v>-294</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>0.80459999999999998</v>
-      </c>
-      <c r="B173">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="C173">
-        <v>-305</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>0.80793000000000004</v>
-      </c>
-      <c r="B174">
-        <v>-0.3</v>
-      </c>
-      <c r="C174">
-        <v>-316</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>0.81116999999999995</v>
-      </c>
-      <c r="B175">
-        <v>-0.31</v>
-      </c>
-      <c r="C175">
-        <v>-327</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>0.81428999999999996</v>
-      </c>
-      <c r="B176">
-        <v>-0.32</v>
-      </c>
-      <c r="C176">
-        <v>-337</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>0.81757999999999997</v>
-      </c>
-      <c r="B177">
-        <v>-0.33</v>
-      </c>
-      <c r="C177">
-        <v>-348</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>0.82081999999999999</v>
-      </c>
-      <c r="B178">
-        <v>-0.34</v>
-      </c>
-      <c r="C178">
-        <v>-359</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>0.82416</v>
-      </c>
-      <c r="B179">
-        <v>-0.35</v>
-      </c>
-      <c r="C179">
-        <v>-370</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>0.82743</v>
-      </c>
-      <c r="B180">
-        <v>-0.36</v>
-      </c>
-      <c r="C180">
-        <v>-381</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>0.83060999999999996</v>
-      </c>
-      <c r="B181">
-        <v>-0.37</v>
-      </c>
-      <c r="C181">
-        <v>-391</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>0.83382000000000001</v>
-      </c>
-      <c r="B182">
-        <v>-0.38</v>
-      </c>
-      <c r="C182">
-        <v>-402</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>0.83692</v>
-      </c>
-      <c r="B183">
-        <v>-0.39</v>
-      </c>
-      <c r="C183">
-        <v>-412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>0.84036999999999995</v>
-      </c>
-      <c r="B184">
-        <v>-0.4</v>
-      </c>
-      <c r="C184">
-        <v>-423</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>0.84372000000000003</v>
-      </c>
-      <c r="B185">
-        <v>-0.41</v>
-      </c>
-      <c r="C185">
-        <v>-434</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>0.84689999999999999</v>
-      </c>
-      <c r="B186">
-        <v>-0.42</v>
-      </c>
-      <c r="C186">
-        <v>-444.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>0.85018000000000005</v>
-      </c>
-      <c r="B187">
-        <v>-0.43</v>
-      </c>
-      <c r="C187">
-        <v>-456</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>0.85319</v>
-      </c>
-      <c r="B188">
-        <v>-0.44</v>
-      </c>
-      <c r="C188">
-        <v>-465</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>0.85648999999999997</v>
-      </c>
-      <c r="B189">
-        <v>-0.45</v>
-      </c>
-      <c r="C189">
-        <v>-476</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="B190">
-        <v>-0.46</v>
-      </c>
-      <c r="C190">
-        <v>-486</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>0.86277000000000004</v>
-      </c>
-      <c r="B191">
-        <v>-0.47</v>
-      </c>
-      <c r="C191">
-        <v>-496.5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>0.86609000000000003</v>
-      </c>
-      <c r="B192">
-        <v>-0.48</v>
-      </c>
-      <c r="C192">
-        <v>-507</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>0.86958999999999997</v>
-      </c>
-      <c r="B193">
-        <v>-0.49</v>
-      </c>
-      <c r="C193">
-        <v>-518</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>0.87277000000000005</v>
-      </c>
-      <c r="B194">
-        <v>-0.5</v>
-      </c>
-      <c r="C194">
-        <v>-528</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>0.87609000000000004</v>
-      </c>
-      <c r="B195">
-        <v>-0.51</v>
-      </c>
-      <c r="C195">
-        <v>-539</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>0.87944999999999995</v>
-      </c>
-      <c r="B196">
-        <v>-0.52</v>
-      </c>
-      <c r="C196">
-        <v>-549</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>0.88273999999999997</v>
-      </c>
-      <c r="B197">
-        <v>-0.53</v>
-      </c>
-      <c r="C197">
-        <v>-560</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>0.88610999999999995</v>
-      </c>
-      <c r="B198">
-        <v>-0.54</v>
-      </c>
       <c r="C198">
-        <v>-570</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-581</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>-0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.88934000000000002</v>
+        <v>0.89265000000000005</v>
       </c>
       <c r="B199">
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C199">
-        <v>-581</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-591</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>-0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.89265000000000005</v>
+        <v>0.89576</v>
       </c>
       <c r="B200">
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C200">
-        <v>-591</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-601</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>-0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.89576</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="B201">
-        <v>-0.56999999999999995</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="C201">
-        <v>-601</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-611.5</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>-0.61150000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.89910000000000001</v>
+        <v>0.90237999999999996</v>
       </c>
       <c r="B202">
-        <v>-0.57999999999999996</v>
+        <v>-0.59</v>
       </c>
       <c r="C202">
-        <v>-611.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-622</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>-0.622</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.90237999999999996</v>
+        <v>0.90566000000000002</v>
       </c>
       <c r="B203">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="C203">
-        <v>-622</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-632</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>-0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.90566000000000002</v>
+        <v>0.90905000000000002</v>
       </c>
       <c r="B204">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="C204">
-        <v>-632</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-642.5</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>-0.64249999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.90905000000000002</v>
+        <v>0.91232999999999997</v>
       </c>
       <c r="B205">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="C205">
-        <v>-642.5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-653</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>-0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.91232999999999997</v>
+        <v>0.91559000000000001</v>
       </c>
       <c r="B206">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C206">
-        <v>-653</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-663</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>-0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.91559000000000001</v>
+        <v>0.91898000000000002</v>
       </c>
       <c r="B207">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="C207">
-        <v>-663</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-673</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>-0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0.91898000000000002</v>
+        <v>0.92181999999999997</v>
       </c>
       <c r="B208">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="C208">
-        <v>-673</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-682</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>-0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0.92181999999999997</v>
+        <v>0.92552999999999996</v>
       </c>
       <c r="B209">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="C209">
-        <v>-682</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-693</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>-0.69300000000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0.92552999999999996</v>
+        <v>0.92871000000000004</v>
       </c>
       <c r="B210">
-        <v>-0.66</v>
+        <v>-0.67</v>
       </c>
       <c r="C210">
-        <v>-693</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-704</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>-0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.92871000000000004</v>
+        <v>0.93220000000000003</v>
       </c>
       <c r="B211">
-        <v>-0.67</v>
+        <v>-0.68</v>
       </c>
       <c r="C211">
-        <v>-704</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-715</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>-0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.93220000000000003</v>
+        <v>0.93527000000000005</v>
       </c>
       <c r="B212">
-        <v>-0.68</v>
+        <v>-0.69</v>
       </c>
       <c r="C212">
-        <v>-715</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-724</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>-0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.93527000000000005</v>
+        <v>0.94174999999999998</v>
       </c>
       <c r="B213">
-        <v>-0.69</v>
+        <v>-0.71</v>
       </c>
       <c r="C213">
-        <v>-724</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-744</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>-0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.93581999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="B214">
-        <v>-0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="C214">
-        <v>-734.5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-755</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>-0.755</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.94174999999999998</v>
+        <v>0.94816</v>
       </c>
       <c r="B215">
-        <v>-0.71</v>
+        <v>-0.73</v>
       </c>
       <c r="C215">
-        <v>-744</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-765</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>-0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.94499999999999995</v>
+        <v>0.95121</v>
       </c>
       <c r="B216">
-        <v>-0.72</v>
+        <v>-0.74</v>
       </c>
       <c r="C216">
-        <v>-755</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-774</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>-0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>0.94816</v>
+        <v>0.95425000000000004</v>
       </c>
       <c r="B217">
-        <v>-0.73</v>
+        <v>-0.75</v>
       </c>
       <c r="C217">
-        <v>-765</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-783</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>-0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.95121</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="B218">
-        <v>-0.74</v>
+        <v>-0.76</v>
       </c>
       <c r="C218">
-        <v>-774</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-793</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>-0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0.95425000000000004</v>
+        <v>0.96052000000000004</v>
       </c>
       <c r="B219">
-        <v>-0.75</v>
+        <v>-0.77</v>
       </c>
       <c r="C219">
-        <v>-783</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-803</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>-0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>0.95740000000000003</v>
+        <v>0.96369000000000005</v>
       </c>
       <c r="B220">
-        <v>-0.76</v>
+        <v>-0.78</v>
       </c>
       <c r="C220">
-        <v>-793</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-812</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>-0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.96052000000000004</v>
+        <v>0.96674000000000004</v>
       </c>
       <c r="B221">
-        <v>-0.77</v>
+        <v>-0.79</v>
       </c>
       <c r="C221">
-        <v>-803</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-822</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>-0.82200000000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.96369000000000005</v>
+        <v>0.96980999999999995</v>
       </c>
       <c r="B222">
-        <v>-0.78</v>
+        <v>-0.8</v>
       </c>
       <c r="C222">
-        <v>-812</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-831</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>-0.83100000000000007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.96674000000000004</v>
+        <v>0.97275</v>
       </c>
       <c r="B223">
-        <v>-0.79</v>
+        <v>-0.81</v>
       </c>
       <c r="C223">
-        <v>-822</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-840</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.96980999999999995</v>
+        <v>0.97577999999999998</v>
       </c>
       <c r="B224">
-        <v>-0.8</v>
+        <v>-0.82</v>
       </c>
       <c r="C224">
-        <v>-831</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-849</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>-0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.97275</v>
+        <v>0.97860000000000003</v>
       </c>
       <c r="B225">
-        <v>-0.81</v>
+        <v>-0.83</v>
       </c>
       <c r="C225">
-        <v>-840</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-858</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>-0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.97577999999999998</v>
+        <v>0.98148999999999997</v>
       </c>
       <c r="B226">
-        <v>-0.82</v>
+        <v>-0.84</v>
       </c>
       <c r="C226">
-        <v>-849</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-867</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>-0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.97860000000000003</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="B227">
-        <v>-0.83</v>
+        <v>-0.85</v>
       </c>
       <c r="C227">
-        <v>-858</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-876</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>-0.876</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.98148999999999997</v>
+        <v>0.98712</v>
       </c>
       <c r="B228">
-        <v>-0.84</v>
+        <v>-0.86</v>
       </c>
       <c r="C228">
-        <v>-867</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-884</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>-0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.98440000000000005</v>
+        <v>0.9899</v>
       </c>
       <c r="B229">
-        <v>-0.85</v>
+        <v>-0.87</v>
       </c>
       <c r="C229">
-        <v>-876</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-892</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>-0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.98712</v>
+        <v>0.99265999999999999</v>
       </c>
       <c r="B230">
-        <v>-0.86</v>
+        <v>-0.88</v>
       </c>
       <c r="C230">
-        <v>-884</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-900</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.9899</v>
+        <v>0.99526000000000003</v>
       </c>
       <c r="B231">
-        <v>-0.87</v>
+        <v>-0.89</v>
       </c>
       <c r="C231">
-        <v>-892</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-908</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>-0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.99265999999999999</v>
+        <v>0.99795999999999996</v>
       </c>
       <c r="B232">
-        <v>-0.88</v>
+        <v>-0.9</v>
       </c>
       <c r="C232">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-916.5</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>-0.91649999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.99526000000000003</v>
+        <v>1.00177</v>
       </c>
       <c r="B233">
-        <v>-0.89</v>
+        <v>-0.91500000000000004</v>
       </c>
       <c r="C233">
-        <v>-908</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-928</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>-0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.99795999999999996</v>
+        <v>1.0054799999999999</v>
       </c>
       <c r="B234">
-        <v>-0.9</v>
+        <v>-0.93</v>
       </c>
       <c r="C234">
-        <v>-916.5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-940</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>-0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1.00177</v>
+        <v>1.00926</v>
       </c>
       <c r="B235">
-        <v>-0.91500000000000004</v>
+        <v>-0.94499999999999995</v>
       </c>
       <c r="C235">
-        <v>-928</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-951</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>-0.95100000000000007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1.0054799999999999</v>
+        <v>1.01271</v>
       </c>
       <c r="B236">
-        <v>-0.93</v>
+        <v>-0.96</v>
       </c>
       <c r="C236">
-        <v>-940</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-961</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>-0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1.00926</v>
+        <v>1.01613</v>
       </c>
       <c r="B237">
-        <v>-0.94499999999999995</v>
+        <v>-0.97499999999999998</v>
       </c>
       <c r="C237">
-        <v>-951</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-971</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>-0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1.01271</v>
+        <v>1.0195799999999999</v>
       </c>
       <c r="B238">
-        <v>-0.96</v>
+        <v>-0.99</v>
       </c>
       <c r="C238">
-        <v>-961</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-982</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>-0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1.01613</v>
+        <v>1.0227900000000001</v>
       </c>
       <c r="B239">
-        <v>-0.97499999999999998</v>
+        <v>-1.004</v>
       </c>
       <c r="C239">
-        <v>-971</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-992</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>-0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1.0195799999999999</v>
+        <v>1.0258700000000001</v>
       </c>
       <c r="B240">
-        <v>-0.99</v>
+        <v>-1.0189999999999999</v>
       </c>
       <c r="C240">
-        <v>-982</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1000</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1.0227900000000001</v>
+        <v>1.0290999999999999</v>
       </c>
       <c r="B241">
-        <v>-1.004</v>
+        <v>-1.0349999999999999</v>
       </c>
       <c r="C241">
-        <v>-992</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1010</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1.0258700000000001</v>
+        <v>1.0320400000000001</v>
       </c>
       <c r="B242">
-        <v>-1.0189999999999999</v>
+        <v>-1.05</v>
       </c>
       <c r="C242">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1019</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>-1.0190000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1.0290999999999999</v>
+        <v>1.03491</v>
       </c>
       <c r="B243">
-        <v>-1.0349999999999999</v>
+        <v>-1.0649999999999999</v>
       </c>
       <c r="C243">
-        <v>-1010</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1028</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>-1.028</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1.0320400000000001</v>
+        <v>1.03779</v>
       </c>
       <c r="B244">
-        <v>-1.05</v>
+        <v>-1.08</v>
       </c>
       <c r="C244">
-        <v>-1019</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1037</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>-1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1.03491</v>
+        <v>1.0405199999999999</v>
       </c>
       <c r="B245">
-        <v>-1.0649999999999999</v>
+        <v>-1.095</v>
       </c>
       <c r="C245">
-        <v>-1028</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1045</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="3"/>
+        <v>-1.0449999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1.03779</v>
+        <v>1.04322</v>
       </c>
       <c r="B246">
-        <v>-1.08</v>
+        <v>-1.099</v>
       </c>
       <c r="C246">
-        <v>-1037</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1053</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="3"/>
+        <v>-1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1.0405199999999999</v>
+        <v>1.046</v>
       </c>
       <c r="B247">
-        <v>-1.095</v>
+        <v>-1.125</v>
       </c>
       <c r="C247">
-        <v>-1045</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1062</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="3"/>
+        <v>-1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1.04322</v>
+        <v>1.0485500000000001</v>
       </c>
       <c r="B248">
-        <v>-1.099</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="C248">
-        <v>-1053</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1069</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="3"/>
+        <v>-1.069</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1.046</v>
+        <v>1.0518700000000001</v>
       </c>
       <c r="B249">
+        <v>-1.159</v>
+      </c>
+      <c r="C249">
+        <v>-1079</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="3"/>
+        <v>-1.079</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1.05508</v>
+      </c>
+      <c r="B250">
+        <v>-1.179</v>
+      </c>
+      <c r="C250">
+        <v>-1089</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="3"/>
+        <v>-1.089</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1.0582100000000001</v>
+      </c>
+      <c r="B251">
+        <v>-1.1990000000000001</v>
+      </c>
+      <c r="C251">
+        <v>-1098</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="3"/>
+        <v>-1.0980000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1.06132</v>
+      </c>
+      <c r="B252">
+        <v>-1.2190000000000001</v>
+      </c>
+      <c r="C252">
+        <v>-1108</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="3"/>
+        <v>-1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.06427</v>
+      </c>
+      <c r="B253">
+        <v>-1.2390000000000001</v>
+      </c>
+      <c r="C253">
+        <v>-1116</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="3"/>
+        <v>-1.1160000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1.06717</v>
+      </c>
+      <c r="B254">
+        <v>-1.2589999999999999</v>
+      </c>
+      <c r="C254">
+        <v>-1125</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="3"/>
         <v>-1.125</v>
       </c>
-      <c r="C249">
-        <v>-1062</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1.0485500000000001</v>
-      </c>
-      <c r="B250">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="C250">
-        <v>-1069</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1.0518700000000001</v>
-      </c>
-      <c r="B251">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1.06999</v>
+      </c>
+      <c r="B255">
+        <v>-1.2789999999999999</v>
+      </c>
+      <c r="C255">
+        <v>-1134</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="3"/>
+        <v>-1.1340000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1.0726500000000001</v>
+      </c>
+      <c r="B256">
+        <v>-1.2989999999999999</v>
+      </c>
+      <c r="C256">
+        <v>-1142</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="3"/>
+        <v>-1.1420000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1.0755999999999999</v>
+      </c>
+      <c r="B257">
+        <v>-1.319</v>
+      </c>
+      <c r="C257">
+        <v>-1151</v>
+      </c>
+      <c r="E257">
+        <f t="shared" ref="E257:E287" si="4">C257*0.001</f>
+        <v>-1.151</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1.0782</v>
+      </c>
+      <c r="B258">
+        <v>-1.339</v>
+      </c>
+      <c r="C258">
+        <v>-1159</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="4"/>
         <v>-1.159</v>
       </c>
-      <c r="C251">
-        <v>-1079</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1.05508</v>
-      </c>
-      <c r="B252">
-        <v>-1.179</v>
-      </c>
-      <c r="C252">
-        <v>-1089</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1.0582100000000001</v>
-      </c>
-      <c r="B253">
-        <v>-1.1990000000000001</v>
-      </c>
-      <c r="C253">
-        <v>-1098</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1.06132</v>
-      </c>
-      <c r="B254">
-        <v>-1.2190000000000001</v>
-      </c>
-      <c r="C254">
-        <v>-1108</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1.06427</v>
-      </c>
-      <c r="B255">
-        <v>-1.2390000000000001</v>
-      </c>
-      <c r="C255">
-        <v>-1116</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1.06717</v>
-      </c>
-      <c r="B256">
-        <v>-1.2589999999999999</v>
-      </c>
-      <c r="C256">
-        <v>-1125</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1.06999</v>
-      </c>
-      <c r="B257">
-        <v>-1.2789999999999999</v>
-      </c>
-      <c r="C257">
-        <v>-1134</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1.0726500000000001</v>
-      </c>
-      <c r="B258">
-        <v>-1.2989999999999999</v>
-      </c>
-      <c r="C258">
-        <v>-1142</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1.0755999999999999</v>
+        <v>1.0807899999999999</v>
       </c>
       <c r="B259">
+        <v>-1.359</v>
+      </c>
+      <c r="C259">
+        <v>-1167</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="4"/>
+        <v>-1.167</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1.08318</v>
+      </c>
+      <c r="B260">
+        <v>-1.379</v>
+      </c>
+      <c r="C260">
+        <v>-1174</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>-1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1.0856300000000001</v>
+      </c>
+      <c r="B261">
+        <v>-1.399</v>
+      </c>
+      <c r="C261">
+        <v>-1182</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>-1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1.0880399999999999</v>
+      </c>
+      <c r="B262">
+        <v>-1.419</v>
+      </c>
+      <c r="C262">
+        <v>-1189</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>-1.1890000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1.09148</v>
+      </c>
+      <c r="B263">
+        <v>-1.4490000000000001</v>
+      </c>
+      <c r="C263">
+        <v>-1200</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1.0947499999999999</v>
+      </c>
+      <c r="B264">
+        <v>-1.4790000000000001</v>
+      </c>
+      <c r="C264">
+        <v>-1210</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>-1.21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1.09792</v>
+      </c>
+      <c r="B265">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="C265">
+        <v>-1220</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1.10093</v>
+      </c>
+      <c r="B266">
+        <v>-1.5389999999999999</v>
+      </c>
+      <c r="C266">
+        <v>-1229</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>-1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1.10388</v>
+      </c>
+      <c r="B267">
+        <v>-1.569</v>
+      </c>
+      <c r="C267">
+        <v>-1238</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>-1.238</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1.1067100000000001</v>
+      </c>
+      <c r="B268">
+        <v>-1.599</v>
+      </c>
+      <c r="C268">
+        <v>-1247</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>-1.2470000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1.10948</v>
+      </c>
+      <c r="B269">
+        <v>-1.629</v>
+      </c>
+      <c r="C269">
+        <v>-1256</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>-1.256</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1.1120699999999999</v>
+      </c>
+      <c r="B270">
+        <v>-1.659</v>
+      </c>
+      <c r="C270">
+        <v>-1264</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>-1.264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1.1145700000000001</v>
+      </c>
+      <c r="B271">
+        <v>-1.6879999999999999</v>
+      </c>
+      <c r="C271">
+        <v>-1272</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="4"/>
+        <v>-1.272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1.11704</v>
+      </c>
+      <c r="B272">
+        <v>-1.7190000000000001</v>
+      </c>
+      <c r="C272">
+        <v>-1280</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="4"/>
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1.1192599999999999</v>
+      </c>
+      <c r="B273">
+        <v>-1.7490000000000001</v>
+      </c>
+      <c r="C273">
+        <v>-1287</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="4"/>
+        <v>-1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1.12148</v>
+      </c>
+      <c r="B274">
+        <v>-1.7789999999999999</v>
+      </c>
+      <c r="C274">
+        <v>-1294</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>-1.294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1.12357</v>
+      </c>
+      <c r="B275">
+        <v>-1.8089999999999999</v>
+      </c>
+      <c r="C275">
+        <v>-1300</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1.1255599999999999</v>
+      </c>
+      <c r="B276">
+        <v>-1.839</v>
+      </c>
+      <c r="C276">
+        <v>-1307</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="4"/>
+        <v>-1.3069999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1.12751</v>
+      </c>
+      <c r="B277">
+        <v>-1.869</v>
+      </c>
+      <c r="C277">
+        <v>-1313</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="4"/>
+        <v>-1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1.12944</v>
+      </c>
+      <c r="B278">
+        <v>-1.899</v>
+      </c>
+      <c r="C278">
+        <v>-1319</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="4"/>
         <v>-1.319</v>
       </c>
-      <c r="C259">
-        <v>-1151</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1.0782</v>
-      </c>
-      <c r="B260">
-        <v>-1.339</v>
-      </c>
-      <c r="C260">
-        <v>-1159</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>1.0807899999999999</v>
-      </c>
-      <c r="B261">
-        <v>-1.359</v>
-      </c>
-      <c r="C261">
-        <v>-1167</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1.08318</v>
-      </c>
-      <c r="B262">
-        <v>-1.379</v>
-      </c>
-      <c r="C262">
-        <v>-1174</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1.0856300000000001</v>
-      </c>
-      <c r="B263">
-        <v>-1.399</v>
-      </c>
-      <c r="C263">
-        <v>-1182</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1.0880399999999999</v>
-      </c>
-      <c r="B264">
-        <v>-1.419</v>
-      </c>
-      <c r="C264">
-        <v>-1189</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>1.09148</v>
-      </c>
-      <c r="B265">
-        <v>-1.4490000000000001</v>
-      </c>
-      <c r="C265">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>1.0947499999999999</v>
-      </c>
-      <c r="B266">
-        <v>-1.4790000000000001</v>
-      </c>
-      <c r="C266">
-        <v>-1210</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>1.09792</v>
-      </c>
-      <c r="B267">
-        <v>-1.5089999999999999</v>
-      </c>
-      <c r="C267">
-        <v>-1220</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>1.10093</v>
-      </c>
-      <c r="B268">
-        <v>-1.5389999999999999</v>
-      </c>
-      <c r="C268">
-        <v>-1229</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>1.10388</v>
-      </c>
-      <c r="B269">
-        <v>-1.569</v>
-      </c>
-      <c r="C269">
-        <v>-1238</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>1.1067100000000001</v>
-      </c>
-      <c r="B270">
-        <v>-1.599</v>
-      </c>
-      <c r="C270">
-        <v>-1247</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>1.10948</v>
-      </c>
-      <c r="B271">
-        <v>-1.629</v>
-      </c>
-      <c r="C271">
-        <v>-1256</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>1.1120699999999999</v>
-      </c>
-      <c r="B272">
-        <v>-1.659</v>
-      </c>
-      <c r="C272">
-        <v>-1264</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>1.1145700000000001</v>
-      </c>
-      <c r="B273">
-        <v>-1.6879999999999999</v>
-      </c>
-      <c r="C273">
-        <v>-1272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>1.11704</v>
-      </c>
-      <c r="B274">
-        <v>-1.7190000000000001</v>
-      </c>
-      <c r="C274">
-        <v>-1280</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>1.1192599999999999</v>
-      </c>
-      <c r="B275">
-        <v>-1.7490000000000001</v>
-      </c>
-      <c r="C275">
-        <v>-1287</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>1.12148</v>
-      </c>
-      <c r="B276">
-        <v>-1.7789999999999999</v>
-      </c>
-      <c r="C276">
-        <v>-1294</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>1.12357</v>
-      </c>
-      <c r="B277">
-        <v>-1.8089999999999999</v>
-      </c>
-      <c r="C277">
-        <v>-1300</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>1.1255599999999999</v>
-      </c>
-      <c r="B278">
-        <v>-1.839</v>
-      </c>
-      <c r="C278">
-        <v>-1307</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1.12751</v>
+        <v>1.1312599999999999</v>
       </c>
       <c r="B279">
-        <v>-1.869</v>
+        <v>-1.929</v>
       </c>
       <c r="C279">
-        <v>-1313</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1324</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="4"/>
+        <v>-1.3240000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1.12944</v>
+        <v>1.1330800000000001</v>
       </c>
       <c r="B280">
-        <v>-1.899</v>
+        <v>-1.9590000000000001</v>
       </c>
       <c r="C280">
-        <v>-1319</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1331</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="4"/>
+        <v>-1.331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1.1312599999999999</v>
+        <v>1.1350100000000001</v>
       </c>
       <c r="B281">
-        <v>-1.929</v>
+        <v>-1.9890000000000001</v>
       </c>
       <c r="C281">
-        <v>-1324</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1337</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="4"/>
+        <v>-1.337</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1.1330800000000001</v>
+        <v>1.13663</v>
       </c>
       <c r="B282">
-        <v>-1.9590000000000001</v>
+        <v>-2.0190000000000001</v>
       </c>
       <c r="C282">
-        <v>-1331</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1342</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="4"/>
+        <v>-1.3420000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1.1350100000000001</v>
+        <v>1.13825</v>
       </c>
       <c r="B283">
-        <v>-1.9890000000000001</v>
+        <v>-2.0489999999999999</v>
       </c>
       <c r="C283">
-        <v>-1337</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1348</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="4"/>
+        <v>-1.3480000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1.13663</v>
+        <v>1.13991</v>
       </c>
       <c r="B284">
-        <v>-2.0190000000000001</v>
+        <v>-2.0790000000000002</v>
       </c>
       <c r="C284">
-        <v>-1342</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1353</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="4"/>
+        <v>-1.353</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1.13825</v>
+        <v>1.1414500000000001</v>
       </c>
       <c r="B285">
-        <v>-2.0489999999999999</v>
+        <v>-2.109</v>
       </c>
       <c r="C285">
-        <v>-1348</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1358</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="4"/>
+        <v>-1.3580000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1.13991</v>
+        <v>1.1415500000000001</v>
       </c>
       <c r="B286">
-        <v>-2.0790000000000002</v>
+        <v>-2.1120000000000001</v>
       </c>
       <c r="C286">
-        <v>-1353</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1358</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="4"/>
+        <v>-1.3580000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1.1414500000000001</v>
+        <v>1.1418999999999999</v>
       </c>
       <c r="B287">
-        <v>-2.109</v>
+        <v>-2.1219999999999999</v>
       </c>
       <c r="C287">
-        <v>-1358</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>1.1415500000000001</v>
-      </c>
-      <c r="B288">
-        <v>-2.1120000000000001</v>
-      </c>
-      <c r="C288">
-        <v>-1358</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>1.1418999999999999</v>
-      </c>
-      <c r="B289">
-        <v>-2.1219999999999999</v>
-      </c>
-      <c r="C289">
         <v>-1362</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="4"/>
+        <v>-1.3620000000000001</v>
       </c>
     </row>
   </sheetData>
